--- a/THE LIST.xlsx
+++ b/THE LIST.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>What is the difference between Reader/Writer Class and Streams?</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Syntax of Interface</t>
   </si>
   <si>
-    <t>Name some p</t>
-  </si>
-  <si>
     <t>Which one is faster ??? Why???? 
 for(int i ; i&lt;1000; i++) Vs for(Integer i ; i&lt;1000; i++)</t>
   </si>
@@ -117,6 +114,131 @@
   </si>
   <si>
     <t>Random Reads</t>
+  </si>
+  <si>
+    <t>Name some Interfaces in Java or Android?</t>
+  </si>
+  <si>
+    <t>Difference between ASCII and UTF-8</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/19212306/whats-the-difference-between-ascii-and-unicode</t>
+  </si>
+  <si>
+    <t>UTF-8 is a super set of ASCII. It has a abundant character support (2^7), but ASCII has only 128 characters(0-127).  ASCII was developed only for english language usage, but later more language and character supports needed and gave rise to other enncoding formats like UTF</t>
+  </si>
+  <si>
+    <t>Can we use more than (2^31)  -1 bits for integer in Java</t>
+  </si>
+  <si>
+    <t>In Integer Class we have provision to declare the variable as unsigned and use up the space of negative numbers. So we can have the range of 0 to 2^32</t>
+  </si>
+  <si>
+    <t>What is the size of byte and short data type? What is their use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The byte is of 1 byte and the short is of 2 bytes. Signed integers. 
+They can used in large arrays to save lot of space. </t>
+  </si>
+  <si>
+    <t>int in Java. Size and Range?</t>
+  </si>
+  <si>
+    <t>4 bytes signed integers. Range (-2^31) to (2^31 -1).</t>
+  </si>
+  <si>
+    <t>char in Java? Size and encoding?</t>
+  </si>
+  <si>
+    <t>16 bit Unicode or (UTF-16). So 16 bits are required for a character in Java. So, it can store upto  2^16 characters. Represented as \u0000 to \uffff.</t>
+  </si>
+  <si>
+    <t>Scanner Class in Java, Usage?</t>
+  </si>
+  <si>
+    <t>Using Scanner class object we can get STDIN inputs and many other inputs. 
+Scanner input = new Scanner(System.in)
+int age = input.nextInt();
+char sex = input.nextChar();</t>
+  </si>
+  <si>
+    <t>How you declare constant variables?</t>
+  </si>
+  <si>
+    <t>final int PROJECT_ID = 123;</t>
+  </si>
+  <si>
+    <t>It is the process of clearing the unreachable objects left out after a program execution. 
+For example, in a program 
+Integer a = 4;    ---------&gt; This creates an object and allocate 4 bytes, referenced by a. 
+a = null;             ---------&gt; So here we killed that reference. We can no longer access those 4 bytes in the Heap. 
+So, GC will delete all those objects and free Heap mem. 
+Before deleting any object, GC will invoke the function 
+public void finalize(){
+ // we can override this function in any class.
+}</t>
+  </si>
+  <si>
+    <t>What is Garbage Collection? 
+How finalize() method related to this?</t>
+  </si>
+  <si>
+    <t>Invoking Garbage Collector?</t>
+  </si>
+  <si>
+    <t>Yes using System.gc();</t>
+  </si>
+  <si>
+    <t>Island of Isolation means?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related to Garbage Collection,
+When there is an island of objects references one another, but they cannot be accessed from outside. </t>
+  </si>
+  <si>
+    <t>Mutable objects Vs Immutable objects. Explain.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4658453/difference-between-mutable-objects-and-immutable-objects</t>
+  </si>
+  <si>
+    <t>In Java, The Immutable objects are the ones whose "fields" CANNOT be changed.
+Ways to make Immutable Objects:
+1. Dont provide Setter methods.
+2. Use final keyword.. etc..
+Eg: public class SomeClass{
+  private final int a = 1;
+}  
+Muttable objects are the ones we usually see, whose fields can be chnaged using setter methods. 
+Eg: public Class SomeClass{
+  private int a=1;
+  void setA(int x){
+  this.a = x;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Super keyword usage?</t>
+  </si>
+  <si>
+    <t>why its good to have no argument constructor?</t>
+  </si>
+  <si>
+    <t>What are Virtual Functions and Are there Virtual functions in Java?</t>
+  </si>
+  <si>
+    <t>In object-oriented programming, a virtual function or virtual method is a function or method whose behaviour can be overridden within an inheriting class by a function with the same signature to provide the polymorphic behavior.
+Every non-static method in JAVA is by default virtual method except final and private methods.</t>
+  </si>
+  <si>
+    <t>super keyword can be used by the child class to access the constructors and methods of super class.
+In child class constructor, a call to parent constructor is implicit (it looks like this: super(); ). If we want to call a specific constructor with arguments we can do so like super(arg1, arg2);
+But why do we need to access parent class methods with super keyword?(as we already inherited the class).
+At some instances, when we override the parent class methods, we can utilize the parent class method by super.method_name()  (See Right Image)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because if the child classes forgot to invoke the parent class constructors explicitly, by default no arg constructors will be invoked.  super();
+So it's better to have no arg constructor </t>
   </si>
 </sst>
 </file>
@@ -183,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,6 +341,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -235,6 +358,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>527743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B352C43D-01E3-4DDA-993C-3628E29C5935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10433051" y="16281400"/>
+          <a:ext cx="3619500" cy="2553393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C5716B-1124-47D7-A9A0-62140DC115E6}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +730,7 @@
     <col min="1" max="1" width="8.7265625" style="9"/>
     <col min="2" max="2" width="62.26953125" style="11" customWidth="1"/>
     <col min="3" max="3" width="77.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -577,7 +749,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -637,64 +809,185 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
-        <v>24</v>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{DB37EA9A-BD1B-406F-819F-59D12952B77E}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{A20CB2DB-CA16-4B40-9EE2-23973C84A1A4}"/>
+    <hyperlink ref="D32" r:id="rId3" xr:uid="{BB062A0B-9744-4C58-B744-B038E6498554}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>